--- a/flowdata/profile_data/profile_data_2.xlsx
+++ b/flowdata/profile_data/profile_data_2.xlsx
@@ -64,12 +64,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -351,10 +352,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AZ1"/>
+  <dimension ref="A1:AZ14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="A2" sqref="A2:A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -520,6 +521,71 @@
         <v>0.8</v>
       </c>
     </row>
+    <row r="2" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A2" s="5">
+        <v>1021726655671</v>
+      </c>
+    </row>
+    <row r="3" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
+        <v>1308999206681</v>
+      </c>
+    </row>
+    <row r="4" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
+        <v>1643305211146</v>
+      </c>
+    </row>
+    <row r="5" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
+        <v>1666112234132</v>
+      </c>
+    </row>
+    <row r="6" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <v>1666112234134</v>
+      </c>
+    </row>
+    <row r="7" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
+        <v>1691467583098</v>
+      </c>
+    </row>
+    <row r="8" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <v>2956017120958</v>
+      </c>
+    </row>
+    <row r="9" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <v>3418365613332</v>
+      </c>
+    </row>
+    <row r="10" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
+        <v>3682359402484</v>
+      </c>
+    </row>
+    <row r="11" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
+        <v>4301184849197</v>
+      </c>
+    </row>
+    <row r="12" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
+        <v>5421221417307</v>
+      </c>
+    </row>
+    <row r="13" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
+        <v>6054609733807</v>
+      </c>
+    </row>
+    <row r="14" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
+        <v>6180269411960</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
